--- a/BackTest/2019-10-30 BackTest XRP.xlsx
+++ b/BackTest/2019-10-30 BackTest XRP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>17669.34481157997</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-7802.412188420029</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>345</v>
@@ -521,7 +521,7 @@
         <v>-7802.412188420029</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>344</v>
@@ -562,7 +562,7 @@
         <v>-7802.412188420029</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>344</v>
@@ -603,7 +603,7 @@
         <v>-7802.412188420029</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>344</v>
@@ -644,7 +644,7 @@
         <v>63510.03171157997</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>344</v>
@@ -685,7 +685,7 @@
         <v>55850.54621157997</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>345</v>
@@ -726,7 +726,7 @@
         <v>136733.16251158</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>344</v>
@@ -767,7 +767,7 @@
         <v>118637.42961158</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>345</v>
@@ -808,7 +808,7 @@
         <v>118637.42961158</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>344</v>
@@ -849,7 +849,7 @@
         <v>118637.42961158</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>344</v>
@@ -890,7 +890,7 @@
         <v>708188.2079463999</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>344</v>
@@ -931,7 +931,7 @@
         <v>708188.2079463999</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>345</v>
@@ -972,7 +972,7 @@
         <v>754113.3943989999</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>345</v>
@@ -1013,7 +1013,7 @@
         <v>744405.5471989999</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>346</v>
@@ -1054,9 +1054,11 @@
         <v>744405.5471989999</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>345</v>
+      </c>
       <c r="J17" t="n">
         <v>345</v>
       </c>
@@ -1093,9 +1095,11 @@
         <v>744405.5471989999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>345</v>
+      </c>
       <c r="J18" t="n">
         <v>345</v>
       </c>
@@ -1210,11 +1214,9 @@
         <v>755550.4592313599</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
         <v>345</v>
       </c>
@@ -1251,11 +1253,9 @@
         <v>755550.4592313599</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
         <v>345</v>
       </c>
@@ -1331,9 +1331,11 @@
         <v>755550.4592313599</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>345</v>
+      </c>
       <c r="J24" t="n">
         <v>345</v>
       </c>
@@ -1370,9 +1372,11 @@
         <v>676650.1374313598</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>345</v>
+      </c>
       <c r="J25" t="n">
         <v>345</v>
       </c>
@@ -1409,9 +1413,11 @@
         <v>755121.0610313598</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>344</v>
+      </c>
       <c r="J26" t="n">
         <v>345</v>
       </c>
@@ -1448,9 +1454,11 @@
         <v>755121.0610313598</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>345</v>
+      </c>
       <c r="J27" t="n">
         <v>345</v>
       </c>
@@ -1487,9 +1495,11 @@
         <v>744977.6703313598</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>345</v>
+      </c>
       <c r="J28" t="n">
         <v>345</v>
       </c>
@@ -1526,7 +1536,7 @@
         <v>768792.6696313599</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>344</v>
@@ -1567,7 +1577,7 @@
         <v>784141.8110313598</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>345</v>
@@ -1608,7 +1618,7 @@
         <v>766060.4499313598</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>346</v>
@@ -1649,7 +1659,7 @@
         <v>766060.4499313598</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>345</v>
@@ -1690,9 +1700,11 @@
         <v>766060.4499313598</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>345</v>
+      </c>
       <c r="J33" t="n">
         <v>345</v>
       </c>
@@ -1729,9 +1741,11 @@
         <v>766060.4499313598</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>345</v>
+      </c>
       <c r="J34" t="n">
         <v>345</v>
       </c>
@@ -1768,9 +1782,11 @@
         <v>766060.4499313598</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>345</v>
+      </c>
       <c r="J35" t="n">
         <v>345</v>
       </c>
@@ -1807,9 +1823,11 @@
         <v>766060.4499313598</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>345</v>
+      </c>
       <c r="J36" t="n">
         <v>345</v>
       </c>
@@ -1846,9 +1864,11 @@
         <v>800704.3466313599</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>345</v>
+      </c>
       <c r="J37" t="n">
         <v>345</v>
       </c>
@@ -1885,9 +1905,11 @@
         <v>800454.7224313599</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>346</v>
+      </c>
       <c r="J38" t="n">
         <v>345</v>
       </c>
@@ -1924,9 +1946,11 @@
         <v>800454.7224313599</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>345</v>
+      </c>
       <c r="J39" t="n">
         <v>345</v>
       </c>
@@ -1963,9 +1987,11 @@
         <v>800454.7224313599</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>345</v>
+      </c>
       <c r="J40" t="n">
         <v>345</v>
       </c>
@@ -2002,9 +2028,11 @@
         <v>800454.7224313599</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>345</v>
+      </c>
       <c r="J41" t="n">
         <v>345</v>
       </c>
@@ -2041,9 +2069,11 @@
         <v>808568.8170313599</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>345</v>
+      </c>
       <c r="J42" t="n">
         <v>345</v>
       </c>
@@ -2080,9 +2110,11 @@
         <v>808568.8170313599</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>346</v>
+      </c>
       <c r="J43" t="n">
         <v>345</v>
       </c>
@@ -2119,9 +2151,11 @@
         <v>794295.1852313599</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>346</v>
+      </c>
       <c r="J44" t="n">
         <v>345</v>
       </c>
@@ -2158,9 +2192,11 @@
         <v>810227.27313136</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>345</v>
+      </c>
       <c r="J45" t="n">
         <v>345</v>
       </c>
@@ -2197,9 +2233,11 @@
         <v>666447.16059495</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>346</v>
+      </c>
       <c r="J46" t="n">
         <v>345</v>
       </c>
@@ -2236,9 +2274,11 @@
         <v>682763.5563752899</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>345</v>
+      </c>
       <c r="J47" t="n">
         <v>345</v>
       </c>
@@ -2275,9 +2315,11 @@
         <v>615628.6129752899</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>346</v>
+      </c>
       <c r="J48" t="n">
         <v>345</v>
       </c>
@@ -2314,9 +2356,11 @@
         <v>615628.6129752899</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>345</v>
+      </c>
       <c r="J49" t="n">
         <v>345</v>
       </c>
@@ -2353,9 +2397,11 @@
         <v>615628.6129752899</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>345</v>
+      </c>
       <c r="J50" t="n">
         <v>345</v>
       </c>
@@ -2392,9 +2438,11 @@
         <v>615628.6129752899</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>345</v>
+      </c>
       <c r="J51" t="n">
         <v>345</v>
       </c>
@@ -2431,9 +2479,11 @@
         <v>615628.6129752899</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>345</v>
+      </c>
       <c r="J52" t="n">
         <v>345</v>
       </c>
@@ -2470,9 +2520,11 @@
         <v>615628.6129752899</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>345</v>
+      </c>
       <c r="J53" t="n">
         <v>345</v>
       </c>
@@ -2509,9 +2561,11 @@
         <v>1160452.81917529</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>345</v>
+      </c>
       <c r="J54" t="n">
         <v>345</v>
       </c>
@@ -2548,9 +2602,11 @@
         <v>1160452.81917529</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>346</v>
+      </c>
       <c r="J55" t="n">
         <v>345</v>
       </c>
@@ -2587,9 +2643,11 @@
         <v>1160452.81917529</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>346</v>
+      </c>
       <c r="J56" t="n">
         <v>345</v>
       </c>
@@ -2626,9 +2684,11 @@
         <v>1145461.48937529</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>346</v>
+      </c>
       <c r="J57" t="n">
         <v>345</v>
       </c>
@@ -2665,9 +2725,11 @@
         <v>1374548.25507298</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>345</v>
+      </c>
       <c r="J58" t="n">
         <v>345</v>
       </c>
@@ -2704,9 +2766,11 @@
         <v>1374548.25507298</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>346</v>
+      </c>
       <c r="J59" t="n">
         <v>345</v>
       </c>
@@ -2938,9 +3002,11 @@
         <v>1310945.92127298</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>345</v>
+      </c>
       <c r="J65" t="n">
         <v>345</v>
       </c>
@@ -2977,9 +3043,11 @@
         <v>1310945.92127298</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>345</v>
+      </c>
       <c r="J66" t="n">
         <v>345</v>
       </c>
@@ -3016,9 +3084,11 @@
         <v>1310945.92127298</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>345</v>
+      </c>
       <c r="J67" t="n">
         <v>345</v>
       </c>
@@ -3055,9 +3125,11 @@
         <v>1318672.71597298</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>345</v>
+      </c>
       <c r="J68" t="n">
         <v>345</v>
       </c>
@@ -3094,9 +3166,11 @@
         <v>1285818.61404177</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>346</v>
+      </c>
       <c r="J69" t="n">
         <v>345</v>
       </c>
@@ -3133,9 +3207,11 @@
         <v>1346248.27914177</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>345</v>
+      </c>
       <c r="J70" t="n">
         <v>345</v>
       </c>
@@ -3172,9 +3248,11 @@
         <v>1346223.77644177</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>346</v>
+      </c>
       <c r="J71" t="n">
         <v>345</v>
       </c>
@@ -3211,9 +3289,11 @@
         <v>1346223.77644177</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>345</v>
+      </c>
       <c r="J72" t="n">
         <v>345</v>
       </c>
@@ -3250,9 +3330,11 @@
         <v>1346223.77644177</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>345</v>
+      </c>
       <c r="J73" t="n">
         <v>345</v>
       </c>
@@ -3289,9 +3371,11 @@
         <v>1346223.77644177</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>345</v>
+      </c>
       <c r="J74" t="n">
         <v>345</v>
       </c>
@@ -3328,9 +3412,11 @@
         <v>1346223.77644177</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>345</v>
+      </c>
       <c r="J75" t="n">
         <v>345</v>
       </c>
@@ -3367,9 +3453,11 @@
         <v>1346223.77644177</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>345</v>
+      </c>
       <c r="J76" t="n">
         <v>345</v>
       </c>
@@ -3406,9 +3494,11 @@
         <v>1346223.77644177</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>345</v>
+      </c>
       <c r="J77" t="n">
         <v>345</v>
       </c>
@@ -3445,9 +3535,11 @@
         <v>1346223.77644177</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>345</v>
+      </c>
       <c r="J78" t="n">
         <v>345</v>
       </c>
@@ -3484,9 +3576,11 @@
         <v>1346223.77644177</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>345</v>
+      </c>
       <c r="J79" t="n">
         <v>345</v>
       </c>
@@ -3523,9 +3617,11 @@
         <v>1346223.77644177</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>345</v>
+      </c>
       <c r="J80" t="n">
         <v>345</v>
       </c>
@@ -3562,9 +3658,11 @@
         <v>1346223.77644177</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>345</v>
+      </c>
       <c r="J81" t="n">
         <v>345</v>
       </c>
@@ -3601,9 +3699,11 @@
         <v>1346223.77644177</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>345</v>
+      </c>
       <c r="J82" t="n">
         <v>345</v>
       </c>
@@ -3640,9 +3740,11 @@
         <v>1346223.77644177</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>345</v>
+      </c>
       <c r="J83" t="n">
         <v>345</v>
       </c>
@@ -3679,9 +3781,11 @@
         <v>1346223.77644177</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>345</v>
+      </c>
       <c r="J84" t="n">
         <v>345</v>
       </c>
@@ -3718,9 +3822,11 @@
         <v>1346223.77644177</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>345</v>
+      </c>
       <c r="J85" t="n">
         <v>345</v>
       </c>
@@ -3757,9 +3863,11 @@
         <v>1346223.77644177</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>345</v>
+      </c>
       <c r="J86" t="n">
         <v>345</v>
       </c>
@@ -3796,9 +3904,11 @@
         <v>1346223.77644177</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>345</v>
+      </c>
       <c r="J87" t="n">
         <v>345</v>
       </c>
@@ -3835,9 +3945,11 @@
         <v>1346223.77644177</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>345</v>
+      </c>
       <c r="J88" t="n">
         <v>345</v>
       </c>
@@ -3874,9 +3986,11 @@
         <v>1379020.26144177</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>345</v>
+      </c>
       <c r="J89" t="n">
         <v>345</v>
       </c>
@@ -3913,9 +4027,11 @@
         <v>1007835.27104177</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>346</v>
+      </c>
       <c r="J90" t="n">
         <v>345</v>
       </c>
@@ -3952,9 +4068,11 @@
         <v>1139260.99904177</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>345</v>
+      </c>
       <c r="J91" t="n">
         <v>345</v>
       </c>
@@ -3991,9 +4109,11 @@
         <v>1139260.99904177</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>346</v>
+      </c>
       <c r="J92" t="n">
         <v>345</v>
       </c>
@@ -4732,9 +4852,11 @@
         <v>1301605.24396042</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>345</v>
+      </c>
       <c r="J111" t="n">
         <v>345</v>
       </c>
@@ -4771,9 +4893,11 @@
         <v>1301605.24396042</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>345</v>
+      </c>
       <c r="J112" t="n">
         <v>345</v>
       </c>
@@ -6448,7 +6572,7 @@
         <v>8477540.523332119</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
@@ -6456,11 +6580,11 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L155" t="n">
-        <v>1</v>
+        <v>1.026884057971015</v>
       </c>
       <c r="M155" t="inlineStr"/>
     </row>
@@ -6487,17 +6611,11 @@
         <v>8477540.523332119</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>345</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6526,17 +6644,11 @@
         <v>8477540.523332119</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>345</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6565,17 +6677,11 @@
         <v>8236639.550917519</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>345</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6604,17 +6710,11 @@
         <v>8236639.550917519</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>345</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6643,17 +6743,11 @@
         <v>8215364.057117519</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>345</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6682,17 +6776,11 @@
         <v>8215364.057117519</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>345</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6721,17 +6809,11 @@
         <v>7686848.239217519</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>345</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6760,17 +6842,11 @@
         <v>7686848.239217519</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>345</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6799,17 +6875,11 @@
         <v>6537198.644117519</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>345</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6838,17 +6908,11 @@
         <v>6537198.644117519</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>345</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6877,17 +6941,11 @@
         <v>6537198.644117519</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>345</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6916,17 +6974,11 @@
         <v>6537198.644117519</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>345</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6955,17 +7007,11 @@
         <v>6681068.985217519</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>345</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6994,17 +7040,11 @@
         <v>6681068.985217519</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>345</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7033,17 +7073,11 @@
         <v>6201244.537619619</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>345</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7072,17 +7106,11 @@
         <v>6254380.926419619</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>345</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7111,17 +7139,11 @@
         <v>6254380.926419619</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>345</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7150,17 +7172,11 @@
         <v>6254380.926419619</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>345</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7189,17 +7205,11 @@
         <v>6254380.926419619</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>345</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7228,17 +7238,11 @@
         <v>6254380.926419619</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>345</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7267,17 +7271,11 @@
         <v>6168967.969558149</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>345</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7306,17 +7304,11 @@
         <v>6168967.969558149</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>345</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7345,17 +7337,11 @@
         <v>6488070.887295268</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>345</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7384,17 +7370,11 @@
         <v>6469936.782195268</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>345</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7423,17 +7403,11 @@
         <v>6469936.782195268</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>345</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7462,17 +7436,11 @@
         <v>6109072.284695269</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>345</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7501,17 +7469,11 @@
         <v>6137746.754495269</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>345</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7540,17 +7502,11 @@
         <v>6396868.755095269</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>345</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7579,17 +7535,11 @@
         <v>5898052.897338209</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>345</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7618,17 +7568,11 @@
         <v>6173677.221964189</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>345</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7657,17 +7601,11 @@
         <v>6173677.221964189</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>345</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7696,17 +7634,11 @@
         <v>6173206.040364189</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>345</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7735,17 +7667,11 @@
         <v>6644661.713883249</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>345</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7774,17 +7700,11 @@
         <v>6644661.713883249</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>345</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7813,17 +7733,11 @@
         <v>6468708.935183249</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>345</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7852,17 +7766,11 @@
         <v>6468708.935183249</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>345</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7891,17 +7799,11 @@
         <v>6851117.26298325</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>345</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7930,17 +7832,11 @@
         <v>6851117.26298325</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>345</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7969,17 +7865,11 @@
         <v>6851117.26298325</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>345</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -8008,17 +7898,11 @@
         <v>6804394.29158044</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>345</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8047,17 +7931,11 @@
         <v>6966816.02948044</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>345</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8086,17 +7964,11 @@
         <v>6801079.028779039</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>345</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8125,17 +7997,11 @@
         <v>7076787.302215649</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>345</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8164,17 +8030,11 @@
         <v>7076787.302215649</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>345</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8203,17 +8063,11 @@
         <v>7076787.302215649</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>345</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8242,17 +8096,11 @@
         <v>7076787.302215649</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>345</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8281,17 +8129,11 @@
         <v>7076131.403115649</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>345</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8320,17 +8162,11 @@
         <v>7076131.403115649</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>345</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8359,17 +8195,11 @@
         <v>7076131.403115649</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>345</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8398,17 +8228,11 @@
         <v>7076131.403115649</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>345</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8437,17 +8261,11 @@
         <v>6782808.499115649</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>345</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8476,17 +8294,11 @@
         <v>6782808.499115649</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>345</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8515,17 +8327,11 @@
         <v>6782808.499115649</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>345</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8554,17 +8360,11 @@
         <v>6782808.499115649</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>345</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8593,17 +8393,11 @@
         <v>6658132.889984209</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>345</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8632,17 +8426,11 @@
         <v>6717473.934184209</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>345</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8671,17 +8459,11 @@
         <v>5835909.060884209</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>345</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8710,17 +8492,11 @@
         <v>5835909.060884209</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>345</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8749,17 +8525,11 @@
         <v>6099547.76188421</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>345</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8788,17 +8558,11 @@
         <v>6099547.76188421</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>345</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8827,17 +8591,11 @@
         <v>6099547.76188421</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>345</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8866,17 +8624,11 @@
         <v>6037058.79918421</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>345</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8905,17 +8657,11 @@
         <v>6037058.79918421</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>345</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8944,17 +8690,11 @@
         <v>6037058.79918421</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>345</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8983,17 +8723,11 @@
         <v>5596905.80688421</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>345</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9022,17 +8756,11 @@
         <v>5596905.80688421</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>345</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9061,17 +8789,11 @@
         <v>5429230.06608421</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>345</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9100,17 +8822,11 @@
         <v>6319063.039984209</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>345</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9139,17 +8855,11 @@
         <v>6819715.679933209</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>345</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9178,17 +8888,11 @@
         <v>6346993.581933209</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>345</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9217,17 +8921,11 @@
         <v>6475174.748973379</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>345</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9256,17 +8954,11 @@
         <v>6475174.748973379</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>345</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9295,17 +8987,11 @@
         <v>6176398.257473389</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>345</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9337,14 +9023,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>345</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9376,14 +9056,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>345</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9415,14 +9089,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>345</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9454,14 +9122,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>345</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9493,14 +9155,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>345</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9532,14 +9188,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>345</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9571,14 +9221,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>345</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9610,14 +9254,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>345</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9649,14 +9287,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>345</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9688,14 +9320,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>345</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9727,14 +9353,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>345</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9766,14 +9386,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>345</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9805,14 +9419,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>345</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9844,14 +9452,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>345</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9883,14 +9485,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>345</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9922,14 +9518,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>345</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9961,14 +9551,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>345</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -10000,14 +9584,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>345</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10039,14 +9617,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>345</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10078,14 +9650,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>345</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10117,14 +9683,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>345</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10156,14 +9716,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>345</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10195,14 +9749,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>345</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10234,14 +9782,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>345</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10273,14 +9815,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>345</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10312,14 +9848,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>345</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10351,14 +9881,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>345</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10390,14 +9914,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>345</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10429,14 +9947,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>345</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10468,14 +9980,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>345</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10507,14 +10013,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>345</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10546,14 +10046,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>345</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10585,14 +10079,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>345</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10624,14 +10112,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>345</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10663,14 +10145,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>345</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10702,14 +10178,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>345</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10741,14 +10211,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>345</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10780,14 +10244,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>345</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10819,14 +10277,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>345</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10858,14 +10310,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>345</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10897,14 +10343,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>345</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10936,14 +10376,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>345</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10975,14 +10409,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>345</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -11014,14 +10442,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>345</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -11053,14 +10475,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>345</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -11092,14 +10508,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>345</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -11131,14 +10541,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>345</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11170,14 +10574,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>345</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11209,14 +10607,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>345</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11248,14 +10640,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>345</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11287,14 +10673,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>345</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11326,14 +10706,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>345</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11365,14 +10739,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>345</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11404,14 +10772,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>345</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11443,14 +10805,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>345</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11482,14 +10838,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>345</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11521,14 +10871,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>345</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11560,14 +10904,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>345</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11599,14 +10937,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>345</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11638,14 +10970,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>345</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11677,14 +11003,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>345</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11716,14 +11036,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>345</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11752,19 +11066,13 @@
         <v>7350202.034252439</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>345</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
-        <v>1.015289855072464</v>
+        <v>1</v>
       </c>
       <c r="M291" t="inlineStr"/>
     </row>
@@ -12682,7 +11990,7 @@
         <v>7419551.695335999</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12715,7 +12023,7 @@
         <v>7419551.695335999</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12748,7 +12056,7 @@
         <v>7465795.979935999</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -25849,7 +25157,7 @@
         <v>7492075.166135888</v>
       </c>
       <c r="H718" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -25882,7 +25190,7 @@
         <v>7492075.166135888</v>
       </c>
       <c r="H719" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -25948,7 +25256,7 @@
         <v>7492075.166135888</v>
       </c>
       <c r="H721" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -25981,7 +25289,7 @@
         <v>7492075.166135888</v>
       </c>
       <c r="H722" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -26113,7 +25421,7 @@
         <v>7500255.444320788</v>
       </c>
       <c r="H726" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -26179,7 +25487,7 @@
         <v>7500099.866520788</v>
       </c>
       <c r="H728" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -26212,7 +25520,7 @@
         <v>7500099.866520788</v>
       </c>
       <c r="H729" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -31195,7 +30503,7 @@
         <v>8337074.923356504</v>
       </c>
       <c r="H880" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -31228,7 +30536,7 @@
         <v>8687845.657274574</v>
       </c>
       <c r="H881" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -31261,7 +30569,7 @@
         <v>7689849.059192644</v>
       </c>
       <c r="H882" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -31294,7 +30602,7 @@
         <v>7564275.531918424</v>
       </c>
       <c r="H883" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -31327,7 +30635,7 @@
         <v>7572307.224318424</v>
       </c>
       <c r="H884" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -31360,7 +30668,7 @@
         <v>7572307.224318424</v>
       </c>
       <c r="H885" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -31393,7 +30701,7 @@
         <v>7572307.224318424</v>
       </c>
       <c r="H886" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -31426,7 +30734,7 @@
         <v>7572307.224318424</v>
       </c>
       <c r="H887" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -31459,7 +30767,7 @@
         <v>7550462.679518424</v>
       </c>
       <c r="H888" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -31492,7 +30800,7 @@
         <v>7550462.679518424</v>
       </c>
       <c r="H889" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -31525,7 +30833,7 @@
         <v>7550462.679518424</v>
       </c>
       <c r="H890" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -31558,7 +30866,7 @@
         <v>7550462.679518424</v>
       </c>
       <c r="H891" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -31591,7 +30899,7 @@
         <v>7550462.679518424</v>
       </c>
       <c r="H892" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -31690,7 +30998,7 @@
         <v>7435291.703918424</v>
       </c>
       <c r="H895" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -31723,7 +31031,7 @@
         <v>7137279.927018424</v>
       </c>
       <c r="H896" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -33835,7 +33143,7 @@
         <v>8285397.476757332</v>
       </c>
       <c r="H960" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -33868,7 +33176,7 @@
         <v>8618630.351557331</v>
       </c>
       <c r="H961" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -33901,7 +33209,7 @@
         <v>8553989.25545733</v>
       </c>
       <c r="H962" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -33934,7 +33242,7 @@
         <v>8807825.683425121</v>
       </c>
       <c r="H963" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -33967,7 +33275,7 @@
         <v>8716397.605046591</v>
       </c>
       <c r="H964" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -34000,7 +33308,7 @@
         <v>8736499.930446591</v>
       </c>
       <c r="H965" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -34033,7 +33341,7 @@
         <v>8605342.110346591</v>
       </c>
       <c r="H966" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -34066,7 +33374,7 @@
         <v>8605342.110346591</v>
       </c>
       <c r="H967" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -34099,7 +33407,7 @@
         <v>8605342.110346591</v>
       </c>
       <c r="H968" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -34132,7 +33440,7 @@
         <v>8605342.110346591</v>
       </c>
       <c r="H969" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
@@ -34165,7 +33473,7 @@
         <v>8605342.110346591</v>
       </c>
       <c r="H970" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -34198,7 +33506,7 @@
         <v>8368986.196846591</v>
       </c>
       <c r="H971" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -34231,7 +33539,7 @@
         <v>8368986.196846591</v>
       </c>
       <c r="H972" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -34264,7 +33572,7 @@
         <v>8368986.196846591</v>
       </c>
       <c r="H973" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -34297,7 +33605,7 @@
         <v>8368986.196846591</v>
       </c>
       <c r="H974" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -34396,7 +33704,7 @@
         <v>8324550.038528412</v>
       </c>
       <c r="H977" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -34462,7 +33770,7 @@
         <v>8343075.081328412</v>
       </c>
       <c r="H979" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -34495,7 +33803,7 @@
         <v>8367154.747528411</v>
       </c>
       <c r="H980" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -34528,7 +33836,7 @@
         <v>8367154.747528411</v>
       </c>
       <c r="H981" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -34561,7 +33869,7 @@
         <v>8324206.111428412</v>
       </c>
       <c r="H982" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -34594,7 +33902,7 @@
         <v>8324206.111428412</v>
       </c>
       <c r="H983" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -34660,7 +33968,7 @@
         <v>8324206.111428412</v>
       </c>
       <c r="H985" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -34693,7 +34001,7 @@
         <v>8324206.111428412</v>
       </c>
       <c r="H986" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -34726,7 +34034,7 @@
         <v>8324206.111428412</v>
       </c>
       <c r="H987" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -34759,7 +34067,7 @@
         <v>8324206.111428412</v>
       </c>
       <c r="H988" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -34792,7 +34100,7 @@
         <v>8324206.111428412</v>
       </c>
       <c r="H989" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -34825,7 +34133,7 @@
         <v>8324206.111428412</v>
       </c>
       <c r="H990" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -34858,7 +34166,7 @@
         <v>8591626.698128412</v>
       </c>
       <c r="H991" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -34891,7 +34199,7 @@
         <v>8591626.698128412</v>
       </c>
       <c r="H992" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -35353,7 +34661,7 @@
         <v>8636945.68543612</v>
       </c>
       <c r="H1006" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
@@ -35386,7 +34694,7 @@
         <v>8636945.68543612</v>
       </c>
       <c r="H1007" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
@@ -35419,7 +34727,7 @@
         <v>8636945.68543612</v>
       </c>
       <c r="H1008" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
@@ -35452,7 +34760,7 @@
         <v>8636945.68543612</v>
       </c>
       <c r="H1009" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -35485,7 +34793,7 @@
         <v>8636945.68543612</v>
       </c>
       <c r="H1010" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
@@ -35518,7 +34826,7 @@
         <v>8656625.54364975</v>
       </c>
       <c r="H1011" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -35584,7 +34892,7 @@
         <v>8656625.54364975</v>
       </c>
       <c r="H1013" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
@@ -35683,7 +34991,7 @@
         <v>8656391.689049751</v>
       </c>
       <c r="H1016" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -35749,7 +35057,7 @@
         <v>8656471.978749752</v>
       </c>
       <c r="H1018" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
@@ -35782,7 +35090,7 @@
         <v>8656471.978749752</v>
       </c>
       <c r="H1019" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
@@ -35947,7 +35255,7 @@
         <v>8275159.367112432</v>
       </c>
       <c r="H1024" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
@@ -35980,7 +35288,7 @@
         <v>8275159.367112432</v>
       </c>
       <c r="H1025" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
@@ -36013,7 +35321,7 @@
         <v>8275159.367112432</v>
       </c>
       <c r="H1026" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
@@ -36046,7 +35354,7 @@
         <v>8275159.367112432</v>
       </c>
       <c r="H1027" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -36079,7 +35387,7 @@
         <v>8275159.367112432</v>
       </c>
       <c r="H1028" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -36409,7 +35717,7 @@
         <v>8779522.85493</v>
       </c>
       <c r="H1038" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -36937,7 +36245,7 @@
         <v>9350619.842381909</v>
       </c>
       <c r="H1054" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
@@ -36970,7 +36278,7 @@
         <v>9527457.43398191</v>
       </c>
       <c r="H1055" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
@@ -37069,7 +36377,7 @@
         <v>9721929.24898191</v>
       </c>
       <c r="H1058" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
@@ -37102,7 +36410,7 @@
         <v>9618010.34948191</v>
       </c>
       <c r="H1059" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
@@ -37135,7 +36443,7 @@
         <v>9441078.76312485</v>
       </c>
       <c r="H1060" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
@@ -37168,7 +36476,7 @@
         <v>9441078.76312485</v>
       </c>
       <c r="H1061" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
@@ -37201,7 +36509,7 @@
         <v>9441078.76312485</v>
       </c>
       <c r="H1062" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
@@ -37234,7 +36542,7 @@
         <v>9441078.76312485</v>
       </c>
       <c r="H1063" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
@@ -37267,7 +36575,7 @@
         <v>9427962.13462485</v>
       </c>
       <c r="H1064" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
@@ -37300,7 +36608,7 @@
         <v>9427962.13462485</v>
       </c>
       <c r="H1065" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
@@ -37333,7 +36641,7 @@
         <v>9427962.13462485</v>
       </c>
       <c r="H1066" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
@@ -37366,7 +36674,7 @@
         <v>9427962.13462485</v>
       </c>
       <c r="H1067" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
@@ -37399,7 +36707,7 @@
         <v>9427962.13462485</v>
       </c>
       <c r="H1068" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
@@ -37432,7 +36740,7 @@
         <v>9427962.13462485</v>
       </c>
       <c r="H1069" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
@@ -37465,7 +36773,7 @@
         <v>9427962.13462485</v>
       </c>
       <c r="H1070" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
@@ -37498,7 +36806,7 @@
         <v>9427962.13462485</v>
       </c>
       <c r="H1071" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
@@ -37531,7 +36839,7 @@
         <v>9427962.13462485</v>
       </c>
       <c r="H1072" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
@@ -37564,7 +36872,7 @@
         <v>9427962.13462485</v>
       </c>
       <c r="H1073" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
@@ -37597,7 +36905,7 @@
         <v>9427962.13462485</v>
       </c>
       <c r="H1074" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
@@ -37630,7 +36938,7 @@
         <v>9427962.13462485</v>
       </c>
       <c r="H1075" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
@@ -37663,7 +36971,7 @@
         <v>9446476.936324559</v>
       </c>
       <c r="H1076" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
@@ -37696,7 +37004,7 @@
         <v>9446476.936324559</v>
       </c>
       <c r="H1077" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
@@ -37729,7 +37037,7 @@
         <v>9446476.936324559</v>
       </c>
       <c r="H1078" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
@@ -37762,7 +37070,7 @@
         <v>9353785.40202456</v>
       </c>
       <c r="H1079" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
@@ -37795,7 +37103,7 @@
         <v>9430002.62212456</v>
       </c>
       <c r="H1080" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
@@ -37828,7 +37136,7 @@
         <v>9395529.94572456</v>
       </c>
       <c r="H1081" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
@@ -38389,7 +37697,7 @@
         <v>9595472.595044332</v>
       </c>
       <c r="H1098" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="inlineStr"/>
@@ -38422,7 +37730,7 @@
         <v>9625292.698744332</v>
       </c>
       <c r="H1099" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="inlineStr"/>
@@ -38455,7 +37763,7 @@
         <v>9615453.975244332</v>
       </c>
       <c r="H1100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="inlineStr"/>
@@ -38488,7 +37796,7 @@
         <v>9615453.975244332</v>
       </c>
       <c r="H1101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="inlineStr"/>
@@ -38521,7 +37829,7 @@
         <v>9615453.975244332</v>
       </c>
       <c r="H1102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="inlineStr"/>
@@ -38554,7 +37862,7 @@
         <v>9654011.514515713</v>
       </c>
       <c r="H1103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="inlineStr"/>
@@ -38587,7 +37895,7 @@
         <v>9171271.011415713</v>
       </c>
       <c r="H1104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="inlineStr"/>
@@ -38620,7 +37928,7 @@
         <v>9171271.011415713</v>
       </c>
       <c r="H1105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1105" t="inlineStr"/>
       <c r="J1105" t="inlineStr"/>
@@ -38653,7 +37961,7 @@
         <v>9171271.011415713</v>
       </c>
       <c r="H1106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="inlineStr"/>
@@ -38686,7 +37994,7 @@
         <v>9171271.011415713</v>
       </c>
       <c r="H1107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1107" t="inlineStr"/>
       <c r="J1107" t="inlineStr"/>
@@ -38719,7 +38027,7 @@
         <v>9171271.011415713</v>
       </c>
       <c r="H1108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="inlineStr"/>
@@ -38752,7 +38060,7 @@
         <v>9171271.011415713</v>
       </c>
       <c r="H1109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="inlineStr"/>
@@ -38785,7 +38093,7 @@
         <v>9171271.011415713</v>
       </c>
       <c r="H1110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="inlineStr"/>
@@ -38818,7 +38126,7 @@
         <v>9171271.011415713</v>
       </c>
       <c r="H1111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1111" t="inlineStr"/>
       <c r="J1111" t="inlineStr"/>
@@ -38851,7 +38159,7 @@
         <v>9171271.011415713</v>
       </c>
       <c r="H1112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1112" t="inlineStr"/>
       <c r="J1112" t="inlineStr"/>
@@ -38884,7 +38192,7 @@
         <v>9171271.011415713</v>
       </c>
       <c r="H1113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1113" t="inlineStr"/>
       <c r="J1113" t="inlineStr"/>
@@ -38917,7 +38225,7 @@
         <v>9136070.710515713</v>
       </c>
       <c r="H1114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1114" t="inlineStr"/>
       <c r="J1114" t="inlineStr"/>
@@ -38950,7 +38258,7 @@
         <v>9136070.710515713</v>
       </c>
       <c r="H1115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1115" t="inlineStr"/>
       <c r="J1115" t="inlineStr"/>
@@ -38983,7 +38291,7 @@
         <v>9136070.710515713</v>
       </c>
       <c r="H1116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1116" t="inlineStr"/>
       <c r="J1116" t="inlineStr"/>
@@ -39016,7 +38324,7 @@
         <v>9121227.314315714</v>
       </c>
       <c r="H1117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1117" t="inlineStr"/>
       <c r="J1117" t="inlineStr"/>
@@ -39049,7 +38357,7 @@
         <v>9121227.314315714</v>
       </c>
       <c r="H1118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1118" t="inlineStr"/>
       <c r="J1118" t="inlineStr"/>
@@ -39082,7 +38390,7 @@
         <v>9121227.314315714</v>
       </c>
       <c r="H1119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1119" t="inlineStr"/>
       <c r="J1119" t="inlineStr"/>
@@ -39379,7 +38687,7 @@
         <v>9121227.314315714</v>
       </c>
       <c r="H1128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1128" t="inlineStr"/>
       <c r="J1128" t="inlineStr"/>
@@ -39412,7 +38720,7 @@
         <v>9121227.314315714</v>
       </c>
       <c r="H1129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1129" t="inlineStr"/>
       <c r="J1129" t="inlineStr"/>
@@ -39445,7 +38753,7 @@
         <v>9121227.314315714</v>
       </c>
       <c r="H1130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1130" t="inlineStr"/>
       <c r="J1130" t="inlineStr"/>
@@ -39478,7 +38786,7 @@
         <v>9121227.314315714</v>
       </c>
       <c r="H1131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1131" t="inlineStr"/>
       <c r="J1131" t="inlineStr"/>
@@ -39511,7 +38819,7 @@
         <v>9121227.314315714</v>
       </c>
       <c r="H1132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1132" t="inlineStr"/>
       <c r="J1132" t="inlineStr"/>
@@ -39544,7 +38852,7 @@
         <v>9121227.314315714</v>
       </c>
       <c r="H1133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1133" t="inlineStr"/>
       <c r="J1133" t="inlineStr"/>
@@ -39610,7 +38918,7 @@
         <v>9151686.594724253</v>
       </c>
       <c r="H1135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1135" t="inlineStr"/>
       <c r="J1135" t="inlineStr"/>
@@ -39643,7 +38951,7 @@
         <v>9157487.324324252</v>
       </c>
       <c r="H1136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1136" t="inlineStr"/>
       <c r="J1136" t="inlineStr"/>
@@ -39676,7 +38984,7 @@
         <v>9141030.140215712</v>
       </c>
       <c r="H1137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1137" t="inlineStr"/>
       <c r="J1137" t="inlineStr"/>
@@ -39709,7 +39017,7 @@
         <v>9141030.140215712</v>
       </c>
       <c r="H1138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1138" t="inlineStr"/>
       <c r="J1138" t="inlineStr"/>
@@ -39742,7 +39050,7 @@
         <v>9142262.220662992</v>
       </c>
       <c r="H1139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1139" t="inlineStr"/>
       <c r="J1139" t="inlineStr"/>
@@ -39775,7 +39083,7 @@
         <v>9140109.000362992</v>
       </c>
       <c r="H1140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1140" t="inlineStr"/>
       <c r="J1140" t="inlineStr"/>
@@ -46386,6 +45694,6 @@
       <c r="M1340" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest XRP.xlsx
+++ b/BackTest/2019-10-30 BackTest XRP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1013,11 +1013,9 @@
         <v>744405.5471989999</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>346</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
         <v>345</v>
       </c>
@@ -1054,11 +1052,9 @@
         <v>744405.5471989999</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
         <v>345</v>
       </c>
@@ -1095,11 +1091,9 @@
         <v>744405.5471989999</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
         <v>345</v>
       </c>
@@ -1331,11 +1325,9 @@
         <v>755550.4592313599</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
         <v>345</v>
       </c>
@@ -1372,11 +1364,9 @@
         <v>676650.1374313598</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
         <v>345</v>
       </c>
@@ -1413,11 +1403,9 @@
         <v>755121.0610313598</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>344</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
         <v>345</v>
       </c>
@@ -1454,11 +1442,9 @@
         <v>755121.0610313598</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
         <v>345</v>
       </c>
@@ -1495,11 +1481,9 @@
         <v>744977.6703313598</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
         <v>345</v>
       </c>
@@ -1536,11 +1520,9 @@
         <v>768792.6696313599</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>344</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
         <v>345</v>
       </c>
@@ -1618,11 +1600,9 @@
         <v>766060.4499313598</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>346</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
         <v>345</v>
       </c>
@@ -1659,11 +1639,9 @@
         <v>766060.4499313598</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
         <v>345</v>
       </c>
@@ -1700,11 +1678,9 @@
         <v>766060.4499313598</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
         <v>345</v>
       </c>
@@ -1741,11 +1717,9 @@
         <v>766060.4499313598</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
         <v>345</v>
       </c>
@@ -1782,11 +1756,9 @@
         <v>766060.4499313598</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
         <v>345</v>
       </c>
@@ -1823,11 +1795,9 @@
         <v>766060.4499313598</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
         <v>345</v>
       </c>
@@ -1864,11 +1834,9 @@
         <v>800704.3466313599</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
         <v>345</v>
       </c>
@@ -1905,11 +1873,9 @@
         <v>800454.7224313599</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>346</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
         <v>345</v>
       </c>
@@ -1946,11 +1912,9 @@
         <v>800454.7224313599</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
         <v>345</v>
       </c>
@@ -1987,11 +1951,9 @@
         <v>800454.7224313599</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
         <v>345</v>
       </c>
@@ -2028,11 +1990,9 @@
         <v>800454.7224313599</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
         <v>345</v>
       </c>
@@ -2069,11 +2029,9 @@
         <v>808568.8170313599</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
         <v>345</v>
       </c>
@@ -2110,11 +2068,9 @@
         <v>808568.8170313599</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>346</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
         <v>345</v>
       </c>
@@ -2151,11 +2107,9 @@
         <v>794295.1852313599</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>346</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
         <v>345</v>
       </c>
@@ -2192,11 +2146,9 @@
         <v>810227.27313136</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
         <v>345</v>
       </c>
@@ -2233,11 +2185,9 @@
         <v>666447.16059495</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>346</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
         <v>345</v>
       </c>
@@ -2274,11 +2224,9 @@
         <v>682763.5563752899</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
         <v>345</v>
       </c>
@@ -2315,11 +2263,9 @@
         <v>615628.6129752899</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>346</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
         <v>345</v>
       </c>
@@ -2356,11 +2302,9 @@
         <v>615628.6129752899</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
         <v>345</v>
       </c>
@@ -2397,11 +2341,9 @@
         <v>615628.6129752899</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
         <v>345</v>
       </c>
@@ -2438,11 +2380,9 @@
         <v>615628.6129752899</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
         <v>345</v>
       </c>
@@ -2479,11 +2419,9 @@
         <v>615628.6129752899</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
         <v>345</v>
       </c>
@@ -2520,11 +2458,9 @@
         <v>615628.6129752899</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
         <v>345</v>
       </c>
@@ -2561,11 +2497,9 @@
         <v>1160452.81917529</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
         <v>345</v>
       </c>
@@ -2602,11 +2536,9 @@
         <v>1160452.81917529</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>346</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
         <v>345</v>
       </c>
@@ -2643,11 +2575,9 @@
         <v>1160452.81917529</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>346</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
         <v>345</v>
       </c>
@@ -2684,11 +2614,9 @@
         <v>1145461.48937529</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>346</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
         <v>345</v>
       </c>
@@ -2725,11 +2653,9 @@
         <v>1374548.25507298</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
         <v>345</v>
       </c>
@@ -2766,11 +2692,9 @@
         <v>1374548.25507298</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>346</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
         <v>345</v>
       </c>
@@ -3002,11 +2926,9 @@
         <v>1310945.92127298</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
         <v>345</v>
       </c>
@@ -3043,11 +2965,9 @@
         <v>1310945.92127298</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
         <v>345</v>
       </c>
@@ -3084,11 +3004,9 @@
         <v>1310945.92127298</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
         <v>345</v>
       </c>
@@ -3125,11 +3043,9 @@
         <v>1318672.71597298</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
         <v>345</v>
       </c>
@@ -3166,11 +3082,9 @@
         <v>1285818.61404177</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>346</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
         <v>345</v>
       </c>
@@ -3207,11 +3121,9 @@
         <v>1346248.27914177</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
         <v>345</v>
       </c>
@@ -3248,11 +3160,9 @@
         <v>1346223.77644177</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>346</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
         <v>345</v>
       </c>
@@ -3289,11 +3199,9 @@
         <v>1346223.77644177</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
         <v>345</v>
       </c>
@@ -3330,11 +3238,9 @@
         <v>1346223.77644177</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
         <v>345</v>
       </c>
@@ -3371,11 +3277,9 @@
         <v>1346223.77644177</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
         <v>345</v>
       </c>
@@ -3412,11 +3316,9 @@
         <v>1346223.77644177</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
         <v>345</v>
       </c>
@@ -3453,11 +3355,9 @@
         <v>1346223.77644177</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
         <v>345</v>
       </c>
@@ -3494,11 +3394,9 @@
         <v>1346223.77644177</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
         <v>345</v>
       </c>
@@ -3535,11 +3433,9 @@
         <v>1346223.77644177</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
         <v>345</v>
       </c>
@@ -3576,11 +3472,9 @@
         <v>1346223.77644177</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
         <v>345</v>
       </c>
@@ -3617,11 +3511,9 @@
         <v>1346223.77644177</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
         <v>345</v>
       </c>
@@ -3658,11 +3550,9 @@
         <v>1346223.77644177</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
         <v>345</v>
       </c>
@@ -3699,11 +3589,9 @@
         <v>1346223.77644177</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
         <v>345</v>
       </c>
@@ -3740,11 +3628,9 @@
         <v>1346223.77644177</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
         <v>345</v>
       </c>
@@ -3781,11 +3667,9 @@
         <v>1346223.77644177</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
         <v>345</v>
       </c>
@@ -3822,11 +3706,9 @@
         <v>1346223.77644177</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
         <v>345</v>
       </c>
@@ -3863,11 +3745,9 @@
         <v>1346223.77644177</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
         <v>345</v>
       </c>
@@ -3904,11 +3784,9 @@
         <v>1346223.77644177</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
         <v>345</v>
       </c>
@@ -3945,11 +3823,9 @@
         <v>1346223.77644177</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
         <v>345</v>
       </c>
@@ -3986,11 +3862,9 @@
         <v>1379020.26144177</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
         <v>345</v>
       </c>
@@ -4027,11 +3901,9 @@
         <v>1007835.27104177</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>346</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
         <v>345</v>
       </c>
@@ -4068,11 +3940,9 @@
         <v>1139260.99904177</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
         <v>345</v>
       </c>
@@ -4109,11 +3979,9 @@
         <v>1139260.99904177</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>346</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
         <v>345</v>
       </c>
@@ -4852,11 +4720,9 @@
         <v>1301605.24396042</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
         <v>345</v>
       </c>
@@ -4893,11 +4759,9 @@
         <v>1301605.24396042</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
         <v>345</v>
       </c>
@@ -5597,7 +5461,7 @@
         <v>4711743.36912942</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
@@ -5605,11 +5469,11 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L130" t="n">
-        <v>1</v>
+        <v>1.012391304347826</v>
       </c>
       <c r="M130" t="inlineStr"/>
     </row>
@@ -5636,17 +5500,11 @@
         <v>4711743.36912942</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>345</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5675,17 +5533,11 @@
         <v>5559074.75372327</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>345</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5714,17 +5566,11 @@
         <v>5559074.75372327</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>345</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5753,17 +5599,11 @@
         <v>5559074.75372327</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>345</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5792,17 +5632,11 @@
         <v>7213463.12442073</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>345</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5831,17 +5665,11 @@
         <v>7213463.12442073</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>345</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5870,17 +5698,11 @@
         <v>8663610.02033202</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>345</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5909,17 +5731,11 @@
         <v>8663610.02033202</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>345</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5951,14 +5767,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>345</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5990,14 +5800,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>345</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -6029,14 +5833,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>345</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -6068,14 +5866,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>345</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -6107,14 +5899,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>345</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6146,14 +5932,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>345</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6185,14 +5965,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>345</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6224,14 +5998,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>345</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6263,14 +6031,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>345</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6302,14 +6064,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>345</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6341,14 +6097,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>345</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6380,14 +6130,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>345</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6419,14 +6163,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>345</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6458,14 +6196,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>345</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6497,14 +6229,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>345</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6536,14 +6262,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>345</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6572,19 +6292,13 @@
         <v>8477540.523332119</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>345</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
-        <v>1.026884057971015</v>
+        <v>1</v>
       </c>
       <c r="M155" t="inlineStr"/>
     </row>
@@ -6611,7 +6325,7 @@
         <v>8477540.523332119</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6644,7 +6358,7 @@
         <v>8477540.523332119</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6677,7 +6391,7 @@
         <v>8236639.550917519</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6710,7 +6424,7 @@
         <v>8236639.550917519</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6743,7 +6457,7 @@
         <v>8215364.057117519</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -7073,7 +6787,7 @@
         <v>6201244.537619619</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -7106,7 +6820,7 @@
         <v>6254380.926419619</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -7139,7 +6853,7 @@
         <v>6254380.926419619</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -7172,7 +6886,7 @@
         <v>6254380.926419619</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -7205,7 +6919,7 @@
         <v>6254380.926419619</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -7238,7 +6952,7 @@
         <v>6254380.926419619</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -7271,7 +6985,7 @@
         <v>6168967.969558149</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -7304,7 +7018,7 @@
         <v>6168967.969558149</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -7337,7 +7051,7 @@
         <v>6488070.887295268</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7370,7 +7084,7 @@
         <v>6469936.782195268</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7403,7 +7117,7 @@
         <v>6469936.782195268</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7436,7 +7150,7 @@
         <v>6109072.284695269</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7469,7 +7183,7 @@
         <v>6137746.754495269</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7502,7 +7216,7 @@
         <v>6396868.755095269</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7535,7 +7249,7 @@
         <v>5898052.897338209</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7568,7 +7282,7 @@
         <v>6173677.221964189</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7601,7 +7315,7 @@
         <v>6173677.221964189</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7634,7 +7348,7 @@
         <v>6173206.040364189</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7667,7 +7381,7 @@
         <v>6644661.713883249</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7700,7 +7414,7 @@
         <v>6644661.713883249</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7733,7 +7447,7 @@
         <v>6468708.935183249</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7766,7 +7480,7 @@
         <v>6468708.935183249</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7799,7 +7513,7 @@
         <v>6851117.26298325</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7832,7 +7546,7 @@
         <v>6851117.26298325</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7865,7 +7579,7 @@
         <v>6851117.26298325</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7898,7 +7612,7 @@
         <v>6804394.29158044</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7931,7 +7645,7 @@
         <v>6966816.02948044</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7964,7 +7678,7 @@
         <v>6801079.028779039</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7997,7 +7711,7 @@
         <v>7076787.302215649</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -8030,7 +7744,7 @@
         <v>7076787.302215649</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -8063,7 +7777,7 @@
         <v>7076787.302215649</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -8096,7 +7810,7 @@
         <v>7076787.302215649</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -8129,7 +7843,7 @@
         <v>7076131.403115649</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -8162,7 +7876,7 @@
         <v>7076131.403115649</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -8195,7 +7909,7 @@
         <v>7076131.403115649</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -8228,7 +7942,7 @@
         <v>7076131.403115649</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8261,7 +7975,7 @@
         <v>6782808.499115649</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -8294,7 +8008,7 @@
         <v>6782808.499115649</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -8327,7 +8041,7 @@
         <v>6782808.499115649</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8360,7 +8074,7 @@
         <v>6782808.499115649</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8393,7 +8107,7 @@
         <v>6658132.889984209</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8426,7 +8140,7 @@
         <v>6717473.934184209</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8459,7 +8173,7 @@
         <v>5835909.060884209</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8492,7 +8206,7 @@
         <v>5835909.060884209</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8525,7 +8239,7 @@
         <v>6099547.76188421</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8558,7 +8272,7 @@
         <v>6099547.76188421</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8591,7 +8305,7 @@
         <v>6099547.76188421</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8624,7 +8338,7 @@
         <v>6037058.79918421</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8657,7 +8371,7 @@
         <v>6037058.79918421</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8690,7 +8404,7 @@
         <v>6037058.79918421</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8723,7 +8437,7 @@
         <v>5596905.80688421</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8756,7 +8470,7 @@
         <v>5596905.80688421</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8789,7 +8503,7 @@
         <v>5429230.06608421</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8822,7 +8536,7 @@
         <v>6319063.039984209</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8855,7 +8569,7 @@
         <v>6819715.679933209</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8888,7 +8602,7 @@
         <v>6346993.581933209</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8921,7 +8635,7 @@
         <v>6475174.748973379</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8954,7 +8668,7 @@
         <v>6475174.748973379</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8987,7 +8701,7 @@
         <v>6176398.257473389</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -11990,7 +11704,7 @@
         <v>7419551.695335999</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12023,7 +11737,7 @@
         <v>7419551.695335999</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12056,7 +11770,7 @@
         <v>7465795.979935999</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -30503,7 +30217,7 @@
         <v>8337074.923356504</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -30536,7 +30250,7 @@
         <v>8687845.657274574</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -30569,7 +30283,7 @@
         <v>7689849.059192644</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -30602,7 +30316,7 @@
         <v>7564275.531918424</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -30668,7 +30382,7 @@
         <v>7572307.224318424</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -30701,7 +30415,7 @@
         <v>7572307.224318424</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -30734,7 +30448,7 @@
         <v>7572307.224318424</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -30767,7 +30481,7 @@
         <v>7550462.679518424</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -30800,7 +30514,7 @@
         <v>7550462.679518424</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -30833,7 +30547,7 @@
         <v>7550462.679518424</v>
       </c>
       <c r="H890" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -30866,7 +30580,7 @@
         <v>7550462.679518424</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -30932,7 +30646,7 @@
         <v>7550462.679518424</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -30965,7 +30679,7 @@
         <v>7435291.703918424</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -30998,7 +30712,7 @@
         <v>7435291.703918424</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -31262,7 +30976,7 @@
         <v>7534145.522818424</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -31295,7 +31009,7 @@
         <v>7520754.532418424</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -31328,7 +31042,7 @@
         <v>7533861.227518424</v>
       </c>
       <c r="H905" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -31361,7 +31075,7 @@
         <v>7497828.589018424</v>
       </c>
       <c r="H906" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -31394,7 +31108,7 @@
         <v>7497828.589018424</v>
       </c>
       <c r="H907" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -31427,7 +31141,7 @@
         <v>7497828.589018424</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -31460,7 +31174,7 @@
         <v>7497828.589018424</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -33110,7 +32824,7 @@
         <v>8278558.194257332</v>
       </c>
       <c r="H959" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -33143,7 +32857,7 @@
         <v>8285397.476757332</v>
       </c>
       <c r="H960" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -33176,7 +32890,7 @@
         <v>8618630.351557331</v>
       </c>
       <c r="H961" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -33704,7 +33418,7 @@
         <v>8324550.038528412</v>
       </c>
       <c r="H977" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -33770,7 +33484,7 @@
         <v>8343075.081328412</v>
       </c>
       <c r="H979" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -33803,7 +33517,7 @@
         <v>8367154.747528411</v>
       </c>
       <c r="H980" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -33836,7 +33550,7 @@
         <v>8367154.747528411</v>
       </c>
       <c r="H981" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -33869,7 +33583,7 @@
         <v>8324206.111428412</v>
       </c>
       <c r="H982" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -33902,7 +33616,7 @@
         <v>8324206.111428412</v>
       </c>
       <c r="H983" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -33968,7 +33682,7 @@
         <v>8324206.111428412</v>
       </c>
       <c r="H985" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -34001,7 +33715,7 @@
         <v>8324206.111428412</v>
       </c>
       <c r="H986" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -34034,7 +33748,7 @@
         <v>8324206.111428412</v>
       </c>
       <c r="H987" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -34067,7 +33781,7 @@
         <v>8324206.111428412</v>
       </c>
       <c r="H988" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -34100,7 +33814,7 @@
         <v>8324206.111428412</v>
       </c>
       <c r="H989" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -34133,7 +33847,7 @@
         <v>8324206.111428412</v>
       </c>
       <c r="H990" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -34166,7 +33880,7 @@
         <v>8591626.698128412</v>
       </c>
       <c r="H991" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -34199,7 +33913,7 @@
         <v>8591626.698128412</v>
       </c>
       <c r="H992" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -34661,7 +34375,7 @@
         <v>8636945.68543612</v>
       </c>
       <c r="H1006" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
@@ -34694,7 +34408,7 @@
         <v>8636945.68543612</v>
       </c>
       <c r="H1007" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
@@ -34727,7 +34441,7 @@
         <v>8636945.68543612</v>
       </c>
       <c r="H1008" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
@@ -34760,7 +34474,7 @@
         <v>8636945.68543612</v>
       </c>
       <c r="H1009" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -34793,7 +34507,7 @@
         <v>8636945.68543612</v>
       </c>
       <c r="H1010" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
@@ -34826,7 +34540,7 @@
         <v>8656625.54364975</v>
       </c>
       <c r="H1011" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -34892,7 +34606,7 @@
         <v>8656625.54364975</v>
       </c>
       <c r="H1013" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
@@ -34991,7 +34705,7 @@
         <v>8656391.689049751</v>
       </c>
       <c r="H1016" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -35057,7 +34771,7 @@
         <v>8656471.978749752</v>
       </c>
       <c r="H1018" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
@@ -35090,7 +34804,7 @@
         <v>8656471.978749752</v>
       </c>
       <c r="H1019" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
@@ -35255,7 +34969,7 @@
         <v>8275159.367112432</v>
       </c>
       <c r="H1024" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
@@ -35288,7 +35002,7 @@
         <v>8275159.367112432</v>
       </c>
       <c r="H1025" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
@@ -35321,7 +35035,7 @@
         <v>8275159.367112432</v>
       </c>
       <c r="H1026" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
@@ -35354,7 +35068,7 @@
         <v>8275159.367112432</v>
       </c>
       <c r="H1027" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -35387,7 +35101,7 @@
         <v>8275159.367112432</v>
       </c>
       <c r="H1028" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -35717,7 +35431,7 @@
         <v>8779522.85493</v>
       </c>
       <c r="H1038" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -36542,7 +36256,7 @@
         <v>9441078.76312485</v>
       </c>
       <c r="H1063" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
@@ -36575,7 +36289,7 @@
         <v>9427962.13462485</v>
       </c>
       <c r="H1064" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
@@ -36608,7 +36322,7 @@
         <v>9427962.13462485</v>
       </c>
       <c r="H1065" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
@@ -36641,7 +36355,7 @@
         <v>9427962.13462485</v>
       </c>
       <c r="H1066" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
@@ -36674,7 +36388,7 @@
         <v>9427962.13462485</v>
       </c>
       <c r="H1067" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
@@ -36707,7 +36421,7 @@
         <v>9427962.13462485</v>
       </c>
       <c r="H1068" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
@@ -36740,7 +36454,7 @@
         <v>9427962.13462485</v>
       </c>
       <c r="H1069" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
@@ -36773,7 +36487,7 @@
         <v>9427962.13462485</v>
       </c>
       <c r="H1070" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
@@ -36806,7 +36520,7 @@
         <v>9427962.13462485</v>
       </c>
       <c r="H1071" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
@@ -36839,7 +36553,7 @@
         <v>9427962.13462485</v>
       </c>
       <c r="H1072" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
@@ -36872,7 +36586,7 @@
         <v>9427962.13462485</v>
       </c>
       <c r="H1073" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
@@ -36905,7 +36619,7 @@
         <v>9427962.13462485</v>
       </c>
       <c r="H1074" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
@@ -36938,7 +36652,7 @@
         <v>9427962.13462485</v>
       </c>
       <c r="H1075" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
@@ -36971,7 +36685,7 @@
         <v>9446476.936324559</v>
       </c>
       <c r="H1076" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
@@ -37004,7 +36718,7 @@
         <v>9446476.936324559</v>
       </c>
       <c r="H1077" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
@@ -37037,7 +36751,7 @@
         <v>9446476.936324559</v>
       </c>
       <c r="H1078" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
@@ -37070,7 +36784,7 @@
         <v>9353785.40202456</v>
       </c>
       <c r="H1079" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
@@ -37103,7 +36817,7 @@
         <v>9430002.62212456</v>
       </c>
       <c r="H1080" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
@@ -37136,7 +36850,7 @@
         <v>9395529.94572456</v>
       </c>
       <c r="H1081" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
@@ -37697,7 +37411,7 @@
         <v>9595472.595044332</v>
       </c>
       <c r="H1098" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="inlineStr"/>
@@ -37730,7 +37444,7 @@
         <v>9625292.698744332</v>
       </c>
       <c r="H1099" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="inlineStr"/>
@@ -37763,7 +37477,7 @@
         <v>9615453.975244332</v>
       </c>
       <c r="H1100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="inlineStr"/>
@@ -37796,7 +37510,7 @@
         <v>9615453.975244332</v>
       </c>
       <c r="H1101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="inlineStr"/>
@@ -37829,7 +37543,7 @@
         <v>9615453.975244332</v>
       </c>
       <c r="H1102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="inlineStr"/>
@@ -37862,7 +37576,7 @@
         <v>9654011.514515713</v>
       </c>
       <c r="H1103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="inlineStr"/>
@@ -37895,7 +37609,7 @@
         <v>9171271.011415713</v>
       </c>
       <c r="H1104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="inlineStr"/>
@@ -37928,7 +37642,7 @@
         <v>9171271.011415713</v>
       </c>
       <c r="H1105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1105" t="inlineStr"/>
       <c r="J1105" t="inlineStr"/>
@@ -37961,7 +37675,7 @@
         <v>9171271.011415713</v>
       </c>
       <c r="H1106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="inlineStr"/>
@@ -37994,7 +37708,7 @@
         <v>9171271.011415713</v>
       </c>
       <c r="H1107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1107" t="inlineStr"/>
       <c r="J1107" t="inlineStr"/>
@@ -38027,7 +37741,7 @@
         <v>9171271.011415713</v>
       </c>
       <c r="H1108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="inlineStr"/>
@@ -38060,7 +37774,7 @@
         <v>9171271.011415713</v>
       </c>
       <c r="H1109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="inlineStr"/>
@@ -38093,7 +37807,7 @@
         <v>9171271.011415713</v>
       </c>
       <c r="H1110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="inlineStr"/>
@@ -38126,7 +37840,7 @@
         <v>9171271.011415713</v>
       </c>
       <c r="H1111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1111" t="inlineStr"/>
       <c r="J1111" t="inlineStr"/>
@@ -38159,7 +37873,7 @@
         <v>9171271.011415713</v>
       </c>
       <c r="H1112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1112" t="inlineStr"/>
       <c r="J1112" t="inlineStr"/>
@@ -38192,7 +37906,7 @@
         <v>9171271.011415713</v>
       </c>
       <c r="H1113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1113" t="inlineStr"/>
       <c r="J1113" t="inlineStr"/>
@@ -38225,7 +37939,7 @@
         <v>9136070.710515713</v>
       </c>
       <c r="H1114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1114" t="inlineStr"/>
       <c r="J1114" t="inlineStr"/>
@@ -38258,7 +37972,7 @@
         <v>9136070.710515713</v>
       </c>
       <c r="H1115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1115" t="inlineStr"/>
       <c r="J1115" t="inlineStr"/>
@@ -38291,7 +38005,7 @@
         <v>9136070.710515713</v>
       </c>
       <c r="H1116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1116" t="inlineStr"/>
       <c r="J1116" t="inlineStr"/>
@@ -38324,7 +38038,7 @@
         <v>9121227.314315714</v>
       </c>
       <c r="H1117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1117" t="inlineStr"/>
       <c r="J1117" t="inlineStr"/>
@@ -38357,7 +38071,7 @@
         <v>9121227.314315714</v>
       </c>
       <c r="H1118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1118" t="inlineStr"/>
       <c r="J1118" t="inlineStr"/>
@@ -38390,7 +38104,7 @@
         <v>9121227.314315714</v>
       </c>
       <c r="H1119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1119" t="inlineStr"/>
       <c r="J1119" t="inlineStr"/>
@@ -38687,7 +38401,7 @@
         <v>9121227.314315714</v>
       </c>
       <c r="H1128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1128" t="inlineStr"/>
       <c r="J1128" t="inlineStr"/>
@@ -38720,7 +38434,7 @@
         <v>9121227.314315714</v>
       </c>
       <c r="H1129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1129" t="inlineStr"/>
       <c r="J1129" t="inlineStr"/>
@@ -38753,7 +38467,7 @@
         <v>9121227.314315714</v>
       </c>
       <c r="H1130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1130" t="inlineStr"/>
       <c r="J1130" t="inlineStr"/>
@@ -38786,7 +38500,7 @@
         <v>9121227.314315714</v>
       </c>
       <c r="H1131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1131" t="inlineStr"/>
       <c r="J1131" t="inlineStr"/>
@@ -38819,7 +38533,7 @@
         <v>9121227.314315714</v>
       </c>
       <c r="H1132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1132" t="inlineStr"/>
       <c r="J1132" t="inlineStr"/>
@@ -38852,7 +38566,7 @@
         <v>9121227.314315714</v>
       </c>
       <c r="H1133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1133" t="inlineStr"/>
       <c r="J1133" t="inlineStr"/>
@@ -38918,7 +38632,7 @@
         <v>9151686.594724253</v>
       </c>
       <c r="H1135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1135" t="inlineStr"/>
       <c r="J1135" t="inlineStr"/>
@@ -38951,7 +38665,7 @@
         <v>9157487.324324252</v>
       </c>
       <c r="H1136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1136" t="inlineStr"/>
       <c r="J1136" t="inlineStr"/>
@@ -38984,7 +38698,7 @@
         <v>9141030.140215712</v>
       </c>
       <c r="H1137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1137" t="inlineStr"/>
       <c r="J1137" t="inlineStr"/>
@@ -39017,7 +38731,7 @@
         <v>9141030.140215712</v>
       </c>
       <c r="H1138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1138" t="inlineStr"/>
       <c r="J1138" t="inlineStr"/>
@@ -39050,7 +38764,7 @@
         <v>9142262.220662992</v>
       </c>
       <c r="H1139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1139" t="inlineStr"/>
       <c r="J1139" t="inlineStr"/>
@@ -39083,7 +38797,7 @@
         <v>9140109.000362992</v>
       </c>
       <c r="H1140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1140" t="inlineStr"/>
       <c r="J1140" t="inlineStr"/>
@@ -45694,6 +45408,6 @@
       <c r="M1340" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest XRP.xlsx
+++ b/BackTest/2019-10-30 BackTest XRP.xlsx
@@ -1520,9 +1520,11 @@
         <v>768792.6696313599</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>344</v>
+      </c>
       <c r="J29" t="n">
         <v>345</v>
       </c>
@@ -1559,11 +1561,9 @@
         <v>784141.8110313598</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
         <v>345</v>
       </c>
@@ -5461,7 +5461,7 @@
         <v>4711743.36912942</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
@@ -5469,11 +5469,11 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L130" t="n">
-        <v>1.012391304347826</v>
+        <v>1</v>
       </c>
       <c r="M130" t="inlineStr"/>
     </row>
@@ -5500,11 +5500,17 @@
         <v>4711743.36912942</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>345</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5533,11 +5539,17 @@
         <v>5559074.75372327</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>345</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5566,11 +5578,17 @@
         <v>5559074.75372327</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>345</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5599,11 +5617,17 @@
         <v>5559074.75372327</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>345</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5632,11 +5656,17 @@
         <v>7213463.12442073</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>345</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5665,11 +5695,17 @@
         <v>7213463.12442073</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>345</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5698,11 +5734,17 @@
         <v>8663610.02033202</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>345</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5731,11 +5773,17 @@
         <v>8663610.02033202</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>345</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5767,8 +5815,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>345</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5800,8 +5854,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>345</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5833,8 +5893,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>345</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5866,8 +5932,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>345</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5899,8 +5971,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>345</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5932,8 +6010,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>345</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5965,8 +6049,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>345</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5998,8 +6088,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>345</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6031,8 +6127,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>345</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6064,8 +6166,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>345</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6097,8 +6205,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>345</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6130,8 +6244,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>345</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6160,13 +6280,19 @@
         <v>7673919.61464336</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>345</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L151" t="n">
-        <v>1</v>
+        <v>1.021086956521739</v>
       </c>
       <c r="M151" t="inlineStr"/>
     </row>
@@ -6193,7 +6319,7 @@
         <v>8131241.43594336</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6259,7 +6385,7 @@
         <v>8477540.523332119</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6292,7 +6418,7 @@
         <v>8477540.523332119</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6325,7 +6451,7 @@
         <v>8477540.523332119</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6358,7 +6484,7 @@
         <v>8477540.523332119</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6391,7 +6517,7 @@
         <v>8236639.550917519</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6424,7 +6550,7 @@
         <v>8236639.550917519</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6457,7 +6583,7 @@
         <v>8215364.057117519</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6523,7 +6649,7 @@
         <v>7686848.239217519</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6556,7 +6682,7 @@
         <v>7686848.239217519</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6589,7 +6715,7 @@
         <v>6537198.644117519</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6622,7 +6748,7 @@
         <v>6537198.644117519</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6655,7 +6781,7 @@
         <v>6537198.644117519</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6688,7 +6814,7 @@
         <v>6537198.644117519</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6721,7 +6847,7 @@
         <v>6681068.985217519</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6754,7 +6880,7 @@
         <v>6681068.985217519</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -30217,7 +30343,7 @@
         <v>8337074.923356504</v>
       </c>
       <c r="H880" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -30250,7 +30376,7 @@
         <v>8687845.657274574</v>
       </c>
       <c r="H881" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -30283,7 +30409,7 @@
         <v>7689849.059192644</v>
       </c>
       <c r="H882" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -30316,7 +30442,7 @@
         <v>7564275.531918424</v>
       </c>
       <c r="H883" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -30382,7 +30508,7 @@
         <v>7572307.224318424</v>
       </c>
       <c r="H885" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -30415,7 +30541,7 @@
         <v>7572307.224318424</v>
       </c>
       <c r="H886" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -30448,7 +30574,7 @@
         <v>7572307.224318424</v>
       </c>
       <c r="H887" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -30481,7 +30607,7 @@
         <v>7550462.679518424</v>
       </c>
       <c r="H888" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -30514,7 +30640,7 @@
         <v>7550462.679518424</v>
       </c>
       <c r="H889" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -30547,7 +30673,7 @@
         <v>7550462.679518424</v>
       </c>
       <c r="H890" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -30580,7 +30706,7 @@
         <v>7550462.679518424</v>
       </c>
       <c r="H891" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -30646,7 +30772,7 @@
         <v>7550462.679518424</v>
       </c>
       <c r="H893" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -30679,7 +30805,7 @@
         <v>7435291.703918424</v>
       </c>
       <c r="H894" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -30712,7 +30838,7 @@
         <v>7435291.703918424</v>
       </c>
       <c r="H895" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -30976,7 +31102,7 @@
         <v>7534145.522818424</v>
       </c>
       <c r="H903" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -31009,7 +31135,7 @@
         <v>7520754.532418424</v>
       </c>
       <c r="H904" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -31042,7 +31168,7 @@
         <v>7533861.227518424</v>
       </c>
       <c r="H905" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -31075,7 +31201,7 @@
         <v>7497828.589018424</v>
       </c>
       <c r="H906" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -31108,7 +31234,7 @@
         <v>7497828.589018424</v>
       </c>
       <c r="H907" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -31141,7 +31267,7 @@
         <v>7497828.589018424</v>
       </c>
       <c r="H908" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -31174,7 +31300,7 @@
         <v>7497828.589018424</v>
       </c>
       <c r="H909" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -32824,7 +32950,7 @@
         <v>8278558.194257332</v>
       </c>
       <c r="H959" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -32857,7 +32983,7 @@
         <v>8285397.476757332</v>
       </c>
       <c r="H960" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -32890,7 +33016,7 @@
         <v>8618630.351557331</v>
       </c>
       <c r="H961" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
